--- a/MonitoringSystem/wwwroot/data/cu/estimate/xlsx/July_2025_estimate.xlsx
+++ b/MonitoringSystem/wwwroot/data/cu/estimate/xlsx/July_2025_estimate.xlsx
@@ -5,14 +5,14 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="PlanData" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1" fullPrecision="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="167">
   <si>
     <t>CU-YN5TKJ</t>
   </si>
@@ -98,109 +98,31 @@
     <t>CU-YN5WKJ</t>
   </si>
   <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>489</t>
-  </si>
-  <si>
     <t>CU-YN7WKJ</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>384</t>
   </si>
   <si>
     <t>CU-YN9WKJ</t>
   </si>
   <si>
-    <t>1500</t>
-  </si>
-  <si>
-    <t>1250</t>
-  </si>
-  <si>
-    <t>700</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>215</t>
-  </si>
-  <si>
     <t>CU-YN12WKJ</t>
-  </si>
-  <si>
-    <t>1039</t>
   </si>
   <si>
     <t>CU-YN18WKJ</t>
   </si>
   <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>1300</t>
-  </si>
-  <si>
-    <t>1100</t>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>800</t>
-  </si>
-  <si>
-    <t>1200</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
     <t>CU-YN24WKJ</t>
-  </si>
-  <si>
-    <t>176</t>
   </si>
   <si>
     <t>CU-LN5WKJ</t>
   </si>
   <si>
-    <t>494</t>
-  </si>
-  <si>
     <t>CU-LN7WKJ</t>
-  </si>
-  <si>
-    <t>343</t>
   </si>
   <si>
     <t>CU-LN9WKJ</t>
   </si>
   <si>
-    <t>1025</t>
-  </si>
-  <si>
     <t>CU-LN12WKJ</t>
-  </si>
-  <si>
-    <t>712</t>
   </si>
   <si>
     <t>CU-LN18WKJ</t>
@@ -212,13 +134,7 @@
     <t>CU-PN5WKJ</t>
   </si>
   <si>
-    <t>1265</t>
-  </si>
-  <si>
     <t>CU-PN7WKJ</t>
-  </si>
-  <si>
-    <t>77</t>
   </si>
   <si>
     <t>CU-PN9WKJ</t>
@@ -227,19 +143,10 @@
     <t>CU-PN12WKJ</t>
   </si>
   <si>
-    <t>362</t>
-  </si>
-  <si>
     <t>CU-PN18WKJ</t>
   </si>
   <si>
-    <t>55</t>
-  </si>
-  <si>
     <t>CU-PN24WKJ</t>
-  </si>
-  <si>
-    <t>121</t>
   </si>
   <si>
     <t>CU-KN5WKJ</t>
@@ -269,13 +176,7 @@
     <t>CU-PU9XKJ</t>
   </si>
   <si>
-    <t>1050</t>
-  </si>
-  <si>
     <t>CU-PU12XKJ</t>
-  </si>
-  <si>
-    <t>149</t>
   </si>
   <si>
     <t>CU-PU18XKJ</t>
@@ -305,16 +206,10 @@
     <t>CU-N9ZKH-8</t>
   </si>
   <si>
-    <t>1221</t>
-  </si>
-  <si>
     <t>CU-N12ZKH-8</t>
   </si>
   <si>
     <t>CU-N18ZKH-8</t>
-  </si>
-  <si>
-    <t>128</t>
   </si>
   <si>
     <t>CU-N24ZKH-8</t>
@@ -326,28 +221,13 @@
     <t>CU-QN12ZKH-8</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
     <t>CU-QN18ZKH-8</t>
-  </si>
-  <si>
-    <t>48</t>
   </si>
   <si>
     <t>CU-QN24ZKH-8</t>
   </si>
   <si>
-    <t>45</t>
-  </si>
-  <si>
     <t>EU-SN-5UGM</t>
-  </si>
-  <si>
-    <t>31</t>
   </si>
   <si>
     <t>EU-SN-7UGM</t>
@@ -533,25 +413,13 @@
     <t>CU-QU12AKJ</t>
   </si>
   <si>
-    <t>23</t>
-  </si>
-  <si>
     <t>CU-QU18AKJ</t>
-  </si>
-  <si>
-    <t>42</t>
   </si>
   <si>
     <t>CU-QU24AKJ</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>CU-PU5AKJ</t>
-  </si>
-  <si>
-    <t>230</t>
   </si>
   <si>
     <t>CU-PU7AKJ</t>
@@ -563,22 +431,13 @@
     <t>CU-PU12AKJ</t>
   </si>
   <si>
-    <t>72</t>
-  </si>
-  <si>
     <t>CU-PU18AKJ</t>
   </si>
   <si>
     <t>CU-PU24AKJ</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>CU-RU5AKJ</t>
-  </si>
-  <si>
-    <t>53</t>
   </si>
   <si>
     <t>CU-RU7AKJ</t>
@@ -587,13 +446,7 @@
     <t>CU-RU9AKJ</t>
   </si>
   <si>
-    <t>110</t>
-  </si>
-  <si>
     <t>CU-RU12AKJ</t>
-  </si>
-  <si>
-    <t>54</t>
   </si>
   <si>
     <t>CU-RU18AKJ</t>
@@ -602,22 +455,13 @@
     <t>CU-RU24AKJ</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>CU-RU9AKJ-1</t>
   </si>
   <si>
     <t>CU-RU12AKJ-1</t>
   </si>
   <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>104</t>
+    <t>17248</t>
   </si>
   <si>
     <t>CU-QN9AKH-8</t>
@@ -656,37 +500,19 @@
     <t>CU-PN24AKH</t>
   </si>
   <si>
-    <t>CU-XPU5XKJ-E</t>
+    <t>KIOS-5R32-MD0-O</t>
   </si>
   <si>
-    <t>CU-XPU7XKJ-E</t>
+    <t>KIOS-9R32-MD0-O</t>
   </si>
   <si>
-    <t>1</t>
+    <t>CU-YU5BKJ</t>
   </si>
   <si>
-    <t>CU-XPU9XKJ-E</t>
+    <t>CU-YU7BKJ</t>
   </si>
   <si>
-    <t>CU-XPU12XKJ-E</t>
-  </si>
-  <si>
-    <t>CU-PN5WKJ-E</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>CU-PN7WKJ-E</t>
-  </si>
-  <si>
-    <t>CU-PN9WKJ-E</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>CU-PN12WKJ-E</t>
+    <t>CU-YU9BKJ</t>
   </si>
 </sst>
 </file>
@@ -732,7 +558,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AF212"/>
+  <dimension ref="A1:AF209"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3318,7 +3144,7 @@
         <v>1</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="L27" s="0" t="s">
         <v>1</v>
@@ -3336,7 +3162,7 @@
         <v>1</v>
       </c>
       <c r="Q27" s="0" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="R27" s="0" t="s">
         <v>1</v>
@@ -3372,13 +3198,13 @@
         <v>1</v>
       </c>
       <c r="AC27" s="0" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="AD27" s="0" t="s">
         <v>1</v>
       </c>
       <c r="AE27" s="0" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="AF27" s="0" t="s">
         <v>1</v>
@@ -3386,7 +3212,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>1</v>
@@ -3416,10 +3242,10 @@
         <v>1</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="M28" s="0" t="s">
         <v>1</v>
@@ -3434,13 +3260,13 @@
         <v>1</v>
       </c>
       <c r="Q28" s="0" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="R28" s="0" t="s">
         <v>1</v>
       </c>
       <c r="S28" s="0" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="T28" s="0" t="s">
         <v>1</v>
@@ -3470,7 +3296,7 @@
         <v>1</v>
       </c>
       <c r="AC28" s="0" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="AD28" s="0" t="s">
         <v>1</v>
@@ -3484,7 +3310,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>1</v>
@@ -3520,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="N29" s="0" t="s">
         <v>1</v>
@@ -3541,16 +3367,16 @@
         <v>1</v>
       </c>
       <c r="T29" s="0" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="U29" s="0" t="s">
         <v>1</v>
       </c>
       <c r="V29" s="0" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="W29" s="0" t="s">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="X29" s="0" t="s">
         <v>1</v>
@@ -3568,13 +3394,13 @@
         <v>1</v>
       </c>
       <c r="AC29" s="0" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="AD29" s="0" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="AE29" s="0" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="AF29" s="0" t="s">
         <v>1</v>
@@ -3582,7 +3408,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>1</v>
@@ -3615,7 +3441,7 @@
         <v>1</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="M30" s="0" t="s">
         <v>1</v>
@@ -3636,7 +3462,7 @@
         <v>1</v>
       </c>
       <c r="S30" s="0" t="s">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="T30" s="0" t="s">
         <v>1</v>
@@ -3680,7 +3506,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>1</v>
@@ -3704,13 +3530,13 @@
         <v>1</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="L31" s="0" t="s">
         <v>1</v>
@@ -3725,10 +3551,10 @@
         <v>1</v>
       </c>
       <c r="P31" s="0" t="s">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="Q31" s="0" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="R31" s="0" t="s">
         <v>1</v>
@@ -3740,10 +3566,10 @@
         <v>1</v>
       </c>
       <c r="U31" s="0" t="s">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="V31" s="0" t="s">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="W31" s="0" t="s">
         <v>1</v>
@@ -3767,10 +3593,10 @@
         <v>1</v>
       </c>
       <c r="AD31" s="0" t="s">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="AE31" s="0" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="AF31" s="0" t="s">
         <v>1</v>
@@ -3778,7 +3604,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>1</v>
@@ -3802,7 +3628,7 @@
         <v>1</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="J32" s="0" t="s">
         <v>1</v>
@@ -3820,10 +3646,10 @@
         <v>1</v>
       </c>
       <c r="O32" s="0" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="P32" s="0" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="Q32" s="0" t="s">
         <v>1</v>
@@ -3876,7 +3702,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>1</v>
@@ -3897,7 +3723,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="I33" s="0" t="s">
         <v>1</v>
@@ -3912,10 +3738,10 @@
         <v>1</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="N33" s="0" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="O33" s="0" t="s">
         <v>1</v>
@@ -3974,7 +3800,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>1</v>
@@ -3989,10 +3815,10 @@
         <v>1</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="H34" s="0" t="s">
         <v>1</v>
@@ -4072,7 +3898,7 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>1</v>
@@ -4084,10 +3910,10 @@
         <v>1</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="G35" s="0" t="s">
         <v>1</v>
@@ -4111,7 +3937,7 @@
         <v>1</v>
       </c>
       <c r="N35" s="0" t="s">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="O35" s="0" t="s">
         <v>1</v>
@@ -4170,7 +3996,7 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>1</v>
@@ -4185,7 +4011,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="G36" s="0" t="s">
         <v>1</v>
@@ -4268,7 +4094,7 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>1</v>
@@ -4366,7 +4192,7 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>1</v>
@@ -4464,10 +4290,10 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="C39" s="0" t="s">
         <v>1</v>
@@ -4562,13 +4388,13 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="D40" s="0" t="s">
         <v>1</v>
@@ -4660,13 +4486,13 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="D41" s="0" t="s">
         <v>1</v>
@@ -4758,7 +4584,7 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>1</v>
@@ -4776,7 +4602,7 @@
         <v>1</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="H42" s="0" t="s">
         <v>1</v>
@@ -4856,7 +4682,7 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>1</v>
@@ -4868,16 +4694,16 @@
         <v>1</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="F43" s="0" t="s">
         <v>1</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="I43" s="0" t="s">
         <v>1</v>
@@ -4895,10 +4721,10 @@
         <v>1</v>
       </c>
       <c r="N43" s="0" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="O43" s="0" t="s">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="P43" s="0" t="s">
         <v>1</v>
@@ -4916,16 +4742,16 @@
         <v>1</v>
       </c>
       <c r="U43" s="0" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="V43" s="0" t="s">
         <v>1</v>
       </c>
       <c r="W43" s="0" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="X43" s="0" t="s">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="Y43" s="0" t="s">
         <v>1</v>
@@ -4954,7 +4780,7 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>1</v>
@@ -4978,7 +4804,7 @@
         <v>1</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="J44" s="0" t="s">
         <v>1</v>
@@ -5052,7 +4878,7 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>1</v>
@@ -5150,7 +4976,7 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>1</v>
@@ -5248,7 +5074,7 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>1</v>
@@ -5346,7 +5172,7 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>1</v>
@@ -5444,7 +5270,7 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>1</v>
@@ -5542,7 +5368,7 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>1</v>
@@ -5640,7 +5466,7 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>1</v>
@@ -5709,10 +5535,10 @@
         <v>1</v>
       </c>
       <c r="X51" s="0" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="Y51" s="0" t="s">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="Z51" s="0" t="s">
         <v>1</v>
@@ -5721,10 +5547,10 @@
         <v>1</v>
       </c>
       <c r="AB51" s="0" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="AC51" s="0" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="AD51" s="0" t="s">
         <v>1</v>
@@ -5738,7 +5564,7 @@
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>1</v>
@@ -5810,13 +5636,13 @@
         <v>1</v>
       </c>
       <c r="Y52" s="0" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="Z52" s="0" t="s">
         <v>1</v>
       </c>
       <c r="AA52" s="0" t="s">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="AB52" s="0" t="s">
         <v>1</v>
@@ -5836,7 +5662,7 @@
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>1</v>
@@ -5857,7 +5683,7 @@
         <v>1</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="I53" s="0" t="s">
         <v>1</v>
@@ -5914,10 +5740,10 @@
         <v>1</v>
       </c>
       <c r="AA53" s="0" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="AB53" s="0" t="s">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="AC53" s="0" t="s">
         <v>1</v>
@@ -5934,7 +5760,7 @@
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>1</v>
@@ -5958,7 +5784,7 @@
         <v>1</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>87</v>
+        <v>1</v>
       </c>
       <c r="J54" s="0" t="s">
         <v>1</v>
@@ -6032,7 +5858,7 @@
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>1</v>
@@ -6089,10 +5915,10 @@
         <v>1</v>
       </c>
       <c r="T55" s="0" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="U55" s="0" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="V55" s="0" t="s">
         <v>1</v>
@@ -6130,7 +5956,7 @@
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>1</v>
@@ -6228,7 +6054,7 @@
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>1</v>
@@ -6326,7 +6152,7 @@
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>1</v>
@@ -6424,7 +6250,7 @@
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>1</v>
@@ -6522,7 +6348,7 @@
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="B60" s="0" t="s">
         <v>1</v>
@@ -6620,7 +6446,7 @@
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="B61" s="0" t="s">
         <v>1</v>
@@ -6718,7 +6544,7 @@
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="B62" s="0" t="s">
         <v>1</v>
@@ -6816,7 +6642,7 @@
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="B63" s="0" t="s">
         <v>1</v>
@@ -6825,10 +6651,10 @@
         <v>1</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="F63" s="0" t="s">
         <v>1</v>
@@ -6914,7 +6740,7 @@
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="B64" s="0" t="s">
         <v>1</v>
@@ -7012,10 +6838,10 @@
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="C65" s="0" t="s">
         <v>1</v>
@@ -7110,7 +6936,7 @@
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="B66" s="0" t="s">
         <v>1</v>
@@ -7208,7 +7034,7 @@
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="B67" s="0" t="s">
         <v>1</v>
@@ -7306,10 +7132,10 @@
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>104</v>
+        <v>1</v>
       </c>
       <c r="C68" s="0" t="s">
         <v>1</v>
@@ -7324,7 +7150,7 @@
         <v>1</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="H68" s="0" t="s">
         <v>1</v>
@@ -7404,10 +7230,10 @@
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>107</v>
+        <v>1</v>
       </c>
       <c r="C69" s="0" t="s">
         <v>1</v>
@@ -7502,10 +7328,10 @@
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>109</v>
+        <v>1</v>
       </c>
       <c r="C70" s="0" t="s">
         <v>1</v>
@@ -7571,7 +7397,7 @@
         <v>1</v>
       </c>
       <c r="X70" s="0" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="Y70" s="0" t="s">
         <v>1</v>
@@ -7600,7 +7426,7 @@
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="B71" s="0" t="s">
         <v>1</v>
@@ -7690,7 +7516,7 @@
         <v>1</v>
       </c>
       <c r="AE71" s="0" t="s">
-        <v>111</v>
+        <v>1</v>
       </c>
       <c r="AF71" s="0" t="s">
         <v>1</v>
@@ -7698,7 +7524,7 @@
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="B72" s="0" t="s">
         <v>1</v>
@@ -7796,7 +7622,7 @@
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="B73" s="0" t="s">
         <v>1</v>
@@ -7894,7 +7720,7 @@
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="B74" s="0" t="s">
         <v>1</v>
@@ -7992,7 +7818,7 @@
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="B75" s="0" t="s">
         <v>1</v>
@@ -8016,7 +7842,7 @@
         <v>1</v>
       </c>
       <c r="I75" s="0" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="J75" s="0" t="s">
         <v>1</v>
@@ -8082,7 +7908,7 @@
         <v>1</v>
       </c>
       <c r="AE75" s="0" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="AF75" s="0" t="s">
         <v>1</v>
@@ -8090,7 +7916,7 @@
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="B76" s="0" t="s">
         <v>1</v>
@@ -8188,7 +8014,7 @@
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="B77" s="0" t="s">
         <v>1</v>
@@ -8286,7 +8112,7 @@
     </row>
     <row r="78">
       <c r="A78" s="0" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="B78" s="0" t="s">
         <v>1</v>
@@ -8384,7 +8210,7 @@
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="B79" s="0" t="s">
         <v>1</v>
@@ -8482,7 +8308,7 @@
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="B80" s="0" t="s">
         <v>1</v>
@@ -8580,7 +8406,7 @@
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="B81" s="0" t="s">
         <v>1</v>
@@ -8678,7 +8504,7 @@
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>1</v>
@@ -8776,7 +8602,7 @@
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="B83" s="0" t="s">
         <v>1</v>
@@ -8874,7 +8700,7 @@
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>1</v>
@@ -8972,7 +8798,7 @@
     </row>
     <row r="85">
       <c r="A85" s="0" t="s">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>1</v>
@@ -9070,7 +8896,7 @@
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="B86" s="0" t="s">
         <v>1</v>
@@ -9168,7 +8994,7 @@
     </row>
     <row r="87">
       <c r="A87" s="0" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="B87" s="0" t="s">
         <v>1</v>
@@ -9266,7 +9092,7 @@
     </row>
     <row r="88">
       <c r="A88" s="0" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="B88" s="0" t="s">
         <v>1</v>
@@ -9364,7 +9190,7 @@
     </row>
     <row r="89">
       <c r="A89" s="0" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="B89" s="0" t="s">
         <v>1</v>
@@ -9462,7 +9288,7 @@
     </row>
     <row r="90">
       <c r="A90" s="0" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="B90" s="0" t="s">
         <v>1</v>
@@ -9560,7 +9386,7 @@
     </row>
     <row r="91">
       <c r="A91" s="0" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="B91" s="0" t="s">
         <v>1</v>
@@ -9658,7 +9484,7 @@
     </row>
     <row r="92">
       <c r="A92" s="0" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="B92" s="0" t="s">
         <v>1</v>
@@ -9756,7 +9582,7 @@
     </row>
     <row r="93">
       <c r="A93" s="0" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="B93" s="0" t="s">
         <v>1</v>
@@ -9854,7 +9680,7 @@
     </row>
     <row r="94">
       <c r="A94" s="0" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="B94" s="0" t="s">
         <v>1</v>
@@ -9952,7 +9778,7 @@
     </row>
     <row r="95">
       <c r="A95" s="0" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="B95" s="0" t="s">
         <v>1</v>
@@ -10050,7 +9876,7 @@
     </row>
     <row r="96">
       <c r="A96" s="0" t="s">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="B96" s="0" t="s">
         <v>1</v>
@@ -10148,7 +9974,7 @@
     </row>
     <row r="97">
       <c r="A97" s="0" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="B97" s="0" t="s">
         <v>1</v>
@@ -10246,7 +10072,7 @@
     </row>
     <row r="98">
       <c r="A98" s="0" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="B98" s="0" t="s">
         <v>1</v>
@@ -10344,7 +10170,7 @@
     </row>
     <row r="99">
       <c r="A99" s="0" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="B99" s="0" t="s">
         <v>1</v>
@@ -10442,7 +10268,7 @@
     </row>
     <row r="100">
       <c r="A100" s="0" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="B100" s="0" t="s">
         <v>1</v>
@@ -10540,7 +10366,7 @@
     </row>
     <row r="101">
       <c r="A101" s="0" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="B101" s="0" t="s">
         <v>1</v>
@@ -10638,7 +10464,7 @@
     </row>
     <row r="102">
       <c r="A102" s="0" t="s">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c r="B102" s="0" t="s">
         <v>1</v>
@@ -10736,7 +10562,7 @@
     </row>
     <row r="103">
       <c r="A103" s="0" t="s">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="B103" s="0" t="s">
         <v>1</v>
@@ -10834,7 +10660,7 @@
     </row>
     <row r="104">
       <c r="A104" s="0" t="s">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="B104" s="0" t="s">
         <v>1</v>
@@ -10932,7 +10758,7 @@
     </row>
     <row r="105">
       <c r="A105" s="0" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="B105" s="0" t="s">
         <v>1</v>
@@ -11030,7 +10856,7 @@
     </row>
     <row r="106">
       <c r="A106" s="0" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="B106" s="0" t="s">
         <v>1</v>
@@ -11128,7 +10954,7 @@
     </row>
     <row r="107">
       <c r="A107" s="0" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
       <c r="B107" s="0" t="s">
         <v>1</v>
@@ -11226,7 +11052,7 @@
     </row>
     <row r="108">
       <c r="A108" s="0" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="B108" s="0" t="s">
         <v>1</v>
@@ -11324,7 +11150,7 @@
     </row>
     <row r="109">
       <c r="A109" s="0" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="B109" s="0" t="s">
         <v>1</v>
@@ -11422,7 +11248,7 @@
     </row>
     <row r="110">
       <c r="A110" s="0" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="B110" s="0" t="s">
         <v>1</v>
@@ -11520,7 +11346,7 @@
     </row>
     <row r="111">
       <c r="A111" s="0" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="B111" s="0" t="s">
         <v>1</v>
@@ -11618,7 +11444,7 @@
     </row>
     <row r="112">
       <c r="A112" s="0" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="B112" s="0" t="s">
         <v>1</v>
@@ -11716,7 +11542,7 @@
     </row>
     <row r="113">
       <c r="A113" s="0" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="B113" s="0" t="s">
         <v>1</v>
@@ -11814,7 +11640,7 @@
     </row>
     <row r="114">
       <c r="A114" s="0" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="B114" s="0" t="s">
         <v>1</v>
@@ -11912,7 +11738,7 @@
     </row>
     <row r="115">
       <c r="A115" s="0" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="B115" s="0" t="s">
         <v>1</v>
@@ -12010,7 +11836,7 @@
     </row>
     <row r="116">
       <c r="A116" s="0" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="B116" s="0" t="s">
         <v>1</v>
@@ -12108,7 +11934,7 @@
     </row>
     <row r="117">
       <c r="A117" s="0" t="s">
-        <v>157</v>
+        <v>117</v>
       </c>
       <c r="B117" s="0" t="s">
         <v>1</v>
@@ -12206,7 +12032,7 @@
     </row>
     <row r="118">
       <c r="A118" s="0" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B118" s="0" t="s">
         <v>1</v>
@@ -12304,7 +12130,7 @@
     </row>
     <row r="119">
       <c r="A119" s="0" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="B119" s="0" t="s">
         <v>1</v>
@@ -12402,7 +12228,7 @@
     </row>
     <row r="120">
       <c r="A120" s="0" t="s">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="B120" s="0" t="s">
         <v>1</v>
@@ -12500,7 +12326,7 @@
     </row>
     <row r="121">
       <c r="A121" s="0" t="s">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="B121" s="0" t="s">
         <v>1</v>
@@ -12598,7 +12424,7 @@
     </row>
     <row r="122">
       <c r="A122" s="0" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="B122" s="0" t="s">
         <v>1</v>
@@ -12696,7 +12522,7 @@
     </row>
     <row r="123">
       <c r="A123" s="0" t="s">
-        <v>163</v>
+        <v>123</v>
       </c>
       <c r="B123" s="0" t="s">
         <v>1</v>
@@ -12794,7 +12620,7 @@
     </row>
     <row r="124">
       <c r="A124" s="0" t="s">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="B124" s="0" t="s">
         <v>1</v>
@@ -12892,7 +12718,7 @@
     </row>
     <row r="125">
       <c r="A125" s="0" t="s">
-        <v>165</v>
+        <v>125</v>
       </c>
       <c r="B125" s="0" t="s">
         <v>1</v>
@@ -12990,7 +12816,7 @@
     </row>
     <row r="126">
       <c r="A126" s="0" t="s">
-        <v>166</v>
+        <v>126</v>
       </c>
       <c r="B126" s="0" t="s">
         <v>1</v>
@@ -13088,7 +12914,7 @@
     </row>
     <row r="127">
       <c r="A127" s="0" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
       <c r="B127" s="0" t="s">
         <v>1</v>
@@ -13186,7 +13012,7 @@
     </row>
     <row r="128">
       <c r="A128" s="0" t="s">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="B128" s="0" t="s">
         <v>1</v>
@@ -13284,7 +13110,7 @@
     </row>
     <row r="129">
       <c r="A129" s="0" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="B129" s="0" t="s">
         <v>1</v>
@@ -13382,7 +13208,7 @@
     </row>
     <row r="130">
       <c r="A130" s="0" t="s">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="B130" s="0" t="s">
         <v>1</v>
@@ -13480,7 +13306,7 @@
     </row>
     <row r="131">
       <c r="A131" s="0" t="s">
-        <v>171</v>
+        <v>131</v>
       </c>
       <c r="B131" s="0" t="s">
         <v>1</v>
@@ -13578,7 +13404,7 @@
     </row>
     <row r="132">
       <c r="A132" s="0" t="s">
-        <v>172</v>
+        <v>132</v>
       </c>
       <c r="B132" s="0" t="s">
         <v>1</v>
@@ -13602,7 +13428,7 @@
         <v>1</v>
       </c>
       <c r="I132" s="0" t="s">
-        <v>173</v>
+        <v>1</v>
       </c>
       <c r="J132" s="0" t="s">
         <v>1</v>
@@ -13676,7 +13502,7 @@
     </row>
     <row r="133">
       <c r="A133" s="0" t="s">
-        <v>174</v>
+        <v>133</v>
       </c>
       <c r="B133" s="0" t="s">
         <v>1</v>
@@ -13733,7 +13559,7 @@
         <v>1</v>
       </c>
       <c r="T133" s="0" t="s">
-        <v>175</v>
+        <v>1</v>
       </c>
       <c r="U133" s="0" t="s">
         <v>1</v>
@@ -13774,7 +13600,7 @@
     </row>
     <row r="134">
       <c r="A134" s="0" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="B134" s="0" t="s">
         <v>1</v>
@@ -13834,7 +13660,7 @@
         <v>1</v>
       </c>
       <c r="U134" s="0" t="s">
-        <v>177</v>
+        <v>1</v>
       </c>
       <c r="V134" s="0" t="s">
         <v>1</v>
@@ -13872,7 +13698,7 @@
     </row>
     <row r="135">
       <c r="A135" s="0" t="s">
-        <v>178</v>
+        <v>135</v>
       </c>
       <c r="B135" s="0" t="s">
         <v>1</v>
@@ -13941,7 +13767,7 @@
         <v>1</v>
       </c>
       <c r="X135" s="0" t="s">
-        <v>179</v>
+        <v>1</v>
       </c>
       <c r="Y135" s="0" t="s">
         <v>1</v>
@@ -13970,7 +13796,7 @@
     </row>
     <row r="136">
       <c r="A136" s="0" t="s">
-        <v>180</v>
+        <v>136</v>
       </c>
       <c r="B136" s="0" t="s">
         <v>1</v>
@@ -14039,7 +13865,7 @@
         <v>1</v>
       </c>
       <c r="X136" s="0" t="s">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="Y136" s="0" t="s">
         <v>1</v>
@@ -14068,7 +13894,7 @@
     </row>
     <row r="137">
       <c r="A137" s="0" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="B137" s="0" t="s">
         <v>1</v>
@@ -14089,10 +13915,10 @@
         <v>1</v>
       </c>
       <c r="H137" s="0" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="I137" s="0" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="J137" s="0" t="s">
         <v>1</v>
@@ -14166,7 +13992,7 @@
     </row>
     <row r="138">
       <c r="A138" s="0" t="s">
-        <v>182</v>
+        <v>138</v>
       </c>
       <c r="B138" s="0" t="s">
         <v>1</v>
@@ -14190,7 +14016,7 @@
         <v>1</v>
       </c>
       <c r="I138" s="0" t="s">
-        <v>183</v>
+        <v>1</v>
       </c>
       <c r="J138" s="0" t="s">
         <v>1</v>
@@ -14264,7 +14090,7 @@
     </row>
     <row r="139">
       <c r="A139" s="0" t="s">
-        <v>184</v>
+        <v>139</v>
       </c>
       <c r="B139" s="0" t="s">
         <v>1</v>
@@ -14324,7 +14150,7 @@
         <v>1</v>
       </c>
       <c r="U139" s="0" t="s">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="V139" s="0" t="s">
         <v>1</v>
@@ -14362,7 +14188,7 @@
     </row>
     <row r="140">
       <c r="A140" s="0" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="B140" s="0" t="s">
         <v>1</v>
@@ -14422,7 +14248,7 @@
         <v>1</v>
       </c>
       <c r="U140" s="0" t="s">
-        <v>186</v>
+        <v>1</v>
       </c>
       <c r="V140" s="0" t="s">
         <v>1</v>
@@ -14460,7 +14286,7 @@
     </row>
     <row r="141">
       <c r="A141" s="0" t="s">
-        <v>187</v>
+        <v>141</v>
       </c>
       <c r="B141" s="0" t="s">
         <v>1</v>
@@ -14529,7 +14355,7 @@
         <v>1</v>
       </c>
       <c r="X141" s="0" t="s">
-        <v>188</v>
+        <v>1</v>
       </c>
       <c r="Y141" s="0" t="s">
         <v>1</v>
@@ -14558,7 +14384,7 @@
     </row>
     <row r="142">
       <c r="A142" s="0" t="s">
-        <v>189</v>
+        <v>142</v>
       </c>
       <c r="B142" s="0" t="s">
         <v>1</v>
@@ -14582,7 +14408,7 @@
         <v>1</v>
       </c>
       <c r="I142" s="0" t="s">
-        <v>107</v>
+        <v>1</v>
       </c>
       <c r="J142" s="0" t="s">
         <v>1</v>
@@ -14656,7 +14482,7 @@
     </row>
     <row r="143">
       <c r="A143" s="0" t="s">
-        <v>190</v>
+        <v>143</v>
       </c>
       <c r="B143" s="0" t="s">
         <v>1</v>
@@ -14680,7 +14506,7 @@
         <v>1</v>
       </c>
       <c r="I143" s="0" t="s">
-        <v>191</v>
+        <v>1</v>
       </c>
       <c r="J143" s="0" t="s">
         <v>1</v>
@@ -14754,7 +14580,7 @@
     </row>
     <row r="144">
       <c r="A144" s="0" t="s">
-        <v>192</v>
+        <v>144</v>
       </c>
       <c r="B144" s="0" t="s">
         <v>1</v>
@@ -14778,7 +14604,7 @@
         <v>1</v>
       </c>
       <c r="I144" s="0" t="s">
-        <v>193</v>
+        <v>1</v>
       </c>
       <c r="J144" s="0" t="s">
         <v>1</v>
@@ -14852,7 +14678,7 @@
     </row>
     <row r="145">
       <c r="A145" s="0" t="s">
-        <v>194</v>
+        <v>145</v>
       </c>
       <c r="B145" s="0" t="s">
         <v>1</v>
@@ -14912,7 +14738,7 @@
         <v>1</v>
       </c>
       <c r="U145" s="0" t="s">
-        <v>188</v>
+        <v>1</v>
       </c>
       <c r="V145" s="0" t="s">
         <v>1</v>
@@ -14950,7 +14776,7 @@
     </row>
     <row r="146">
       <c r="A146" s="0" t="s">
-        <v>195</v>
+        <v>146</v>
       </c>
       <c r="B146" s="0" t="s">
         <v>1</v>
@@ -15010,7 +14836,7 @@
         <v>1</v>
       </c>
       <c r="U146" s="0" t="s">
-        <v>196</v>
+        <v>1</v>
       </c>
       <c r="V146" s="0" t="s">
         <v>1</v>
@@ -15048,7 +14874,7 @@
     </row>
     <row r="147">
       <c r="A147" s="0" t="s">
-        <v>197</v>
+        <v>147</v>
       </c>
       <c r="B147" s="0" t="s">
         <v>1</v>
@@ -15146,7 +14972,7 @@
     </row>
     <row r="148">
       <c r="A148" s="0" t="s">
-        <v>198</v>
+        <v>148</v>
       </c>
       <c r="B148" s="0" t="s">
         <v>1</v>
@@ -15244,7 +15070,7 @@
     </row>
     <row r="149">
       <c r="A149" s="0" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="B149" s="0" t="s">
         <v>1</v>
@@ -15342,7 +15168,7 @@
     </row>
     <row r="150">
       <c r="A150" s="0" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="B150" s="0" t="s">
         <v>1</v>
@@ -15440,7 +15266,7 @@
     </row>
     <row r="151">
       <c r="A151" s="0" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
       <c r="B151" s="0" t="s">
         <v>1</v>
@@ -15538,7 +15364,7 @@
     </row>
     <row r="152">
       <c r="A152" s="0" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="B152" s="0" t="s">
         <v>1</v>
@@ -15636,7 +15462,7 @@
     </row>
     <row r="153">
       <c r="A153" s="0" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="B153" s="0" t="s">
         <v>1</v>
@@ -15734,7 +15560,7 @@
     </row>
     <row r="154">
       <c r="A154" s="0" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="B154" s="0" t="s">
         <v>1</v>
@@ -15832,7 +15658,7 @@
     </row>
     <row r="155">
       <c r="A155" s="0" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="B155" s="0" t="s">
         <v>1</v>
@@ -15930,7 +15756,7 @@
     </row>
     <row r="156">
       <c r="A156" s="0" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="B156" s="0" t="s">
         <v>1</v>
@@ -16028,7 +15854,7 @@
     </row>
     <row r="157">
       <c r="A157" s="0" t="s">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="B157" s="0" t="s">
         <v>1</v>
@@ -16126,7 +15952,7 @@
     </row>
     <row r="158">
       <c r="A158" s="0" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="B158" s="0" t="s">
         <v>1</v>
@@ -16224,7 +16050,7 @@
     </row>
     <row r="159">
       <c r="A159" s="0" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="B159" s="0" t="s">
         <v>1</v>
@@ -16322,7 +16148,7 @@
     </row>
     <row r="160">
       <c r="A160" s="0" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="B160" s="0" t="s">
         <v>1</v>
@@ -16420,7 +16246,7 @@
     </row>
     <row r="161">
       <c r="A161" s="0" t="s">
-        <v>157</v>
+        <v>117</v>
       </c>
       <c r="B161" s="0" t="s">
         <v>1</v>
@@ -16518,7 +16344,7 @@
     </row>
     <row r="162">
       <c r="A162" s="0" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B162" s="0" t="s">
         <v>1</v>
@@ -16616,7 +16442,7 @@
     </row>
     <row r="163">
       <c r="A163" s="0" t="s">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="B163" s="0" t="s">
         <v>1</v>
@@ -16714,7 +16540,7 @@
     </row>
     <row r="164">
       <c r="A164" s="0" t="s">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="B164" s="0" t="s">
         <v>1</v>
@@ -16812,7 +16638,7 @@
     </row>
     <row r="165">
       <c r="A165" s="0" t="s">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="B165" s="0" t="s">
         <v>1</v>
@@ -16910,7 +16736,7 @@
     </row>
     <row r="166">
       <c r="A166" s="0" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="B166" s="0" t="s">
         <v>1</v>
@@ -17008,7 +16834,7 @@
     </row>
     <row r="167">
       <c r="A167" s="0" t="s">
-        <v>163</v>
+        <v>123</v>
       </c>
       <c r="B167" s="0" t="s">
         <v>1</v>
@@ -17106,7 +16932,7 @@
     </row>
     <row r="168">
       <c r="A168" s="0" t="s">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="B168" s="0" t="s">
         <v>1</v>
@@ -17204,7 +17030,7 @@
     </row>
     <row r="169">
       <c r="A169" s="0" t="s">
-        <v>165</v>
+        <v>125</v>
       </c>
       <c r="B169" s="0" t="s">
         <v>1</v>
@@ -17302,7 +17128,7 @@
     </row>
     <row r="170">
       <c r="A170" s="0" t="s">
-        <v>166</v>
+        <v>126</v>
       </c>
       <c r="B170" s="0" t="s">
         <v>1</v>
@@ -17400,7 +17226,7 @@
     </row>
     <row r="171">
       <c r="A171" s="0" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
       <c r="B171" s="0" t="s">
         <v>1</v>
@@ -17498,7 +17324,7 @@
     </row>
     <row r="172">
       <c r="A172" s="0" t="s">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="B172" s="0" t="s">
         <v>1</v>
@@ -17596,7 +17422,7 @@
     </row>
     <row r="173">
       <c r="A173" s="0" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="B173" s="0" t="s">
         <v>1</v>
@@ -17617,7 +17443,7 @@
         <v>1</v>
       </c>
       <c r="H173" s="0" t="s">
-        <v>199</v>
+        <v>1</v>
       </c>
       <c r="I173" s="0" t="s">
         <v>1</v>
@@ -17694,7 +17520,7 @@
     </row>
     <row r="174">
       <c r="A174" s="0" t="s">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="B174" s="0" t="s">
         <v>1</v>
@@ -17715,7 +17541,7 @@
         <v>1</v>
       </c>
       <c r="H174" s="0" t="s">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="I174" s="0" t="s">
         <v>1</v>
@@ -17792,7 +17618,7 @@
     </row>
     <row r="175">
       <c r="A175" s="0" t="s">
-        <v>171</v>
+        <v>131</v>
       </c>
       <c r="B175" s="0" t="s">
         <v>1</v>
@@ -17813,7 +17639,7 @@
         <v>1</v>
       </c>
       <c r="H175" s="0" t="s">
-        <v>201</v>
+        <v>1</v>
       </c>
       <c r="I175" s="0" t="s">
         <v>1</v>
@@ -17890,7 +17716,7 @@
     </row>
     <row r="176">
       <c r="A176" s="0" t="s">
-        <v>172</v>
+        <v>132</v>
       </c>
       <c r="B176" s="0" t="s">
         <v>1</v>
@@ -17988,10 +17814,10 @@
     </row>
     <row r="177">
       <c r="A177" s="0" t="s">
-        <v>174</v>
+        <v>133</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>1</v>
+        <v>149</v>
       </c>
       <c r="C177" s="0" t="s">
         <v>1</v>
@@ -18086,7 +17912,7 @@
     </row>
     <row r="178">
       <c r="A178" s="0" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="B178" s="0" t="s">
         <v>1</v>
@@ -18184,7 +18010,7 @@
     </row>
     <row r="179">
       <c r="A179" s="0" t="s">
-        <v>178</v>
+        <v>135</v>
       </c>
       <c r="B179" s="0" t="s">
         <v>1</v>
@@ -18282,7 +18108,7 @@
     </row>
     <row r="180">
       <c r="A180" s="0" t="s">
-        <v>180</v>
+        <v>136</v>
       </c>
       <c r="B180" s="0" t="s">
         <v>1</v>
@@ -18380,7 +18206,7 @@
     </row>
     <row r="181">
       <c r="A181" s="0" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="B181" s="0" t="s">
         <v>1</v>
@@ -18478,7 +18304,7 @@
     </row>
     <row r="182">
       <c r="A182" s="0" t="s">
-        <v>182</v>
+        <v>138</v>
       </c>
       <c r="B182" s="0" t="s">
         <v>1</v>
@@ -18576,7 +18402,7 @@
     </row>
     <row r="183">
       <c r="A183" s="0" t="s">
-        <v>184</v>
+        <v>139</v>
       </c>
       <c r="B183" s="0" t="s">
         <v>1</v>
@@ -18674,7 +18500,7 @@
     </row>
     <row r="184">
       <c r="A184" s="0" t="s">
-        <v>185</v>
+        <v>140</v>
       </c>
       <c r="B184" s="0" t="s">
         <v>1</v>
@@ -18772,7 +18598,7 @@
     </row>
     <row r="185">
       <c r="A185" s="0" t="s">
-        <v>187</v>
+        <v>141</v>
       </c>
       <c r="B185" s="0" t="s">
         <v>1</v>
@@ -18870,7 +18696,7 @@
     </row>
     <row r="186">
       <c r="A186" s="0" t="s">
-        <v>189</v>
+        <v>142</v>
       </c>
       <c r="B186" s="0" t="s">
         <v>1</v>
@@ -18968,7 +18794,7 @@
     </row>
     <row r="187">
       <c r="A187" s="0" t="s">
-        <v>190</v>
+        <v>143</v>
       </c>
       <c r="B187" s="0" t="s">
         <v>1</v>
@@ -19066,7 +18892,7 @@
     </row>
     <row r="188">
       <c r="A188" s="0" t="s">
-        <v>192</v>
+        <v>144</v>
       </c>
       <c r="B188" s="0" t="s">
         <v>1</v>
@@ -19164,7 +18990,7 @@
     </row>
     <row r="189">
       <c r="A189" s="0" t="s">
-        <v>194</v>
+        <v>145</v>
       </c>
       <c r="B189" s="0" t="s">
         <v>1</v>
@@ -19262,7 +19088,7 @@
     </row>
     <row r="190">
       <c r="A190" s="0" t="s">
-        <v>195</v>
+        <v>146</v>
       </c>
       <c r="B190" s="0" t="s">
         <v>1</v>
@@ -19360,7 +19186,7 @@
     </row>
     <row r="191">
       <c r="A191" s="0" t="s">
-        <v>197</v>
+        <v>147</v>
       </c>
       <c r="B191" s="0" t="s">
         <v>1</v>
@@ -19458,7 +19284,7 @@
     </row>
     <row r="192">
       <c r="A192" s="0" t="s">
-        <v>198</v>
+        <v>148</v>
       </c>
       <c r="B192" s="0" t="s">
         <v>1</v>
@@ -19556,7 +19382,7 @@
     </row>
     <row r="193">
       <c r="A193" s="0" t="s">
-        <v>202</v>
+        <v>150</v>
       </c>
       <c r="B193" s="0" t="s">
         <v>1</v>
@@ -19654,7 +19480,7 @@
     </row>
     <row r="194">
       <c r="A194" s="0" t="s">
-        <v>203</v>
+        <v>151</v>
       </c>
       <c r="B194" s="0" t="s">
         <v>1</v>
@@ -19752,7 +19578,7 @@
     </row>
     <row r="195">
       <c r="A195" s="0" t="s">
-        <v>204</v>
+        <v>152</v>
       </c>
       <c r="B195" s="0" t="s">
         <v>1</v>
@@ -19850,7 +19676,7 @@
     </row>
     <row r="196">
       <c r="A196" s="0" t="s">
-        <v>205</v>
+        <v>153</v>
       </c>
       <c r="B196" s="0" t="s">
         <v>1</v>
@@ -19948,7 +19774,7 @@
     </row>
     <row r="197">
       <c r="A197" s="0" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
       <c r="B197" s="0" t="s">
         <v>1</v>
@@ -20046,7 +19872,7 @@
     </row>
     <row r="198">
       <c r="A198" s="0" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="B198" s="0" t="s">
         <v>1</v>
@@ -20144,7 +19970,7 @@
     </row>
     <row r="199">
       <c r="A199" s="0" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="B199" s="0" t="s">
         <v>1</v>
@@ -20242,7 +20068,7 @@
     </row>
     <row r="200">
       <c r="A200" s="0" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="B200" s="0" t="s">
         <v>1</v>
@@ -20340,7 +20166,7 @@
     </row>
     <row r="201">
       <c r="A201" s="0" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="B201" s="0" t="s">
         <v>1</v>
@@ -20438,7 +20264,7 @@
     </row>
     <row r="202">
       <c r="A202" s="0" t="s">
-        <v>211</v>
+        <v>159</v>
       </c>
       <c r="B202" s="0" t="s">
         <v>1</v>
@@ -20536,7 +20362,7 @@
     </row>
     <row r="203">
       <c r="A203" s="0" t="s">
-        <v>212</v>
+        <v>160</v>
       </c>
       <c r="B203" s="0" t="s">
         <v>1</v>
@@ -20634,7 +20460,7 @@
     </row>
     <row r="204">
       <c r="A204" s="0" t="s">
-        <v>213</v>
+        <v>161</v>
       </c>
       <c r="B204" s="0" t="s">
         <v>1</v>
@@ -20732,7 +20558,7 @@
     </row>
     <row r="205">
       <c r="A205" s="0" t="s">
-        <v>214</v>
+        <v>162</v>
       </c>
       <c r="B205" s="0" t="s">
         <v>1</v>
@@ -20830,7 +20656,7 @@
     </row>
     <row r="206">
       <c r="A206" s="0" t="s">
-        <v>215</v>
+        <v>163</v>
       </c>
       <c r="B206" s="0" t="s">
         <v>1</v>
@@ -20851,7 +20677,7 @@
         <v>1</v>
       </c>
       <c r="H206" s="0" t="s">
-        <v>216</v>
+        <v>1</v>
       </c>
       <c r="I206" s="0" t="s">
         <v>1</v>
@@ -20928,7 +20754,7 @@
     </row>
     <row r="207">
       <c r="A207" s="0" t="s">
-        <v>217</v>
+        <v>164</v>
       </c>
       <c r="B207" s="0" t="s">
         <v>1</v>
@@ -20949,7 +20775,7 @@
         <v>1</v>
       </c>
       <c r="H207" s="0" t="s">
-        <v>216</v>
+        <v>1</v>
       </c>
       <c r="I207" s="0" t="s">
         <v>1</v>
@@ -21026,7 +20852,7 @@
     </row>
     <row r="208">
       <c r="A208" s="0" t="s">
-        <v>218</v>
+        <v>165</v>
       </c>
       <c r="B208" s="0" t="s">
         <v>1</v>
@@ -21124,10 +20950,10 @@
     </row>
     <row r="209">
       <c r="A209" s="0" t="s">
-        <v>219</v>
+        <v>166</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>220</v>
+        <v>1</v>
       </c>
       <c r="C209" s="0" t="s">
         <v>1</v>
@@ -21217,300 +21043,6 @@
         <v>1</v>
       </c>
       <c r="AF209" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="B210" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C210" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D210" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="E210" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="F210" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="G210" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="H210" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="I210" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="J210" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="K210" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="L210" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="M210" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="N210" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="O210" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="P210" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q210" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="R210" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="S210" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="T210" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="U210" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="V210" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="W210" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="X210" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y210" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z210" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA210" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB210" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC210" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD210" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE210" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF210" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="B211" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C211" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="D211" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="E211" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="F211" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="G211" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="H211" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="I211" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="J211" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="K211" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="L211" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="M211" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="N211" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="O211" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="P211" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q211" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="R211" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="S211" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="T211" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="U211" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="V211" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="W211" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="X211" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y211" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z211" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA211" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB211" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC211" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD211" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE211" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF211" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="B212" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C212" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D212" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="E212" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="F212" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="G212" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="H212" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="I212" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="J212" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="K212" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="L212" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="M212" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="N212" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="O212" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="P212" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q212" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="R212" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="S212" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="T212" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="U212" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="V212" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="W212" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="X212" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y212" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z212" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA212" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB212" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC212" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD212" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE212" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF212" s="0" t="s">
         <v>1</v>
       </c>
     </row>
